--- a/data/trans_orig/IP22D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15303220-6D85-40C4-9044-5B7A098D441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472F1DB1-11C7-44EF-96EE-FE3F7EFF2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38549258-6329-4F81-A13D-CAA1EA7F8150}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B8A5C5F-36C1-4026-9C6A-62068591D41B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -113,13 +113,13 @@
     <t>95,72%</t>
   </si>
   <si>
-    <t>81,2%</t>
+    <t>78,32%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>88,61%</t>
+    <t>85,86%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -131,13 +131,13 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -149,13 +149,13 @@
     <t>91,33%</t>
   </si>
   <si>
-    <t>62,35%</t>
+    <t>57,31%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>85,84%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -164,13 +164,13 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>37,65%</t>
+    <t>42,69%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -200,19 +200,19 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>90,73%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>2,95%</t>
@@ -221,19 +221,19 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -242,7 +242,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299C6C74-C227-4D8B-BFE7-03BF52E4338E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF2597-8BB6-42D4-B5AB-7633C6DBFE68}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472F1DB1-11C7-44EF-96EE-FE3F7EFF2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0679BB78-3F6E-432C-9C8F-570BB9C17C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B8A5C5F-36C1-4026-9C6A-62068591D41B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80427F72-97AF-4AE2-B363-7809F92DC423}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -110,16 +110,16 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -128,49 +128,49 @@
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -182,12 +182,12 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
@@ -197,52 +197,52 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF2597-8BB6-42D4-B5AB-7633C6DBFE68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F61DD8-8C04-492E-A7DF-501A5A814382}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -775,10 +775,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -790,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -928,25 +928,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7002</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
-        <v>5964</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
       <c r="I7" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -961,7 +961,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -981,40 +981,40 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
-        <v>11271</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>12018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7589</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>18859</v>
+        <v>20077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>26</v>
@@ -1044,22 +1044,22 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1083,40 +1083,40 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>504</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>519</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>32</v>
@@ -1134,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>11775</v>
+        <v>8059</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1149,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1187,40 +1187,40 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8669</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>16719</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8722</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>24134</v>
+        <v>25388</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>38</v>
@@ -1238,31 +1238,31 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>42</v>
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>43</v>
@@ -1301,7 +1301,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1340,25 +1340,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
       <c r="I15" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1373,7 +1373,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1393,10 +1393,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1408,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1426,7 +1426,7 @@
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1456,22 +1456,22 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1507,22 +1507,22 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1561,10 +1561,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1579,7 +1579,7 @@
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1599,10 +1599,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>48913</v>
+        <v>47328</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>53</v>
@@ -1614,10 +1614,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>43532</v>
+        <v>52753</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>55</v>
@@ -1632,7 +1632,7 @@
         <v>125</v>
       </c>
       <c r="N20" s="7">
-        <v>92445</v>
+        <v>100081</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>57</v>
@@ -1650,31 +1650,31 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>61</v>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -1701,31 +1701,31 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
-        <v>504</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>519</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>66</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>67</v>
@@ -1752,25 +1752,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>63</v>
+      </c>
+      <c r="D23" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>64</v>
       </c>
-      <c r="D23" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>63</v>
-      </c>
       <c r="I23" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -1785,7 +1785,7 @@
         <v>127</v>
       </c>
       <c r="N23" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
